--- a/base_besmart_v4.1.xlsx
+++ b/base_besmart_v4.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Projetos Matheus\simulador_pub-master\simulador_pub-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38CBFFD-35F8-4E4E-AF28-EE20113F778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA8D23B-26A8-4A23-949C-2566D273302C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF51982C-90FB-4A4C-9760-B6C8573E55BD}"/>
   </bookViews>
@@ -510,21 +510,6 @@
     <t>Veículo Leve-Ademilar</t>
   </si>
   <si>
-    <t>Mongeral-Whole Life 30 Anos - Cs &gt;= 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life Vitalício - Cs &gt;= 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Temporário 30 Anos - Cs &gt;= 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life Vitalício -Cs &lt; 400K Pagto Anual</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life Vitalício -Cs &lt; 400K Pagto Mensal</t>
-  </si>
-  <si>
     <t>Mongeral-Demais Produtos Vida Toda Exceto Linhas Especiais-Pagto Anual</t>
   </si>
   <si>
@@ -567,27 +552,6 @@
     <t>Mongeral-Saf-Pagto Mensal</t>
   </si>
   <si>
-    <t>Prudential-Whole Life 10 Anos-Cs &gt; 420K</t>
-  </si>
-  <si>
-    <t>Prudential-Whole Life 20 Anos-Cs &gt; 420K</t>
-  </si>
-  <si>
-    <t>Prudential-Whole Life 30 Anos-Cs &gt; 420K</t>
-  </si>
-  <si>
-    <t>Prudential-Whole Life 10 Anos-Cs &gt; = 420K</t>
-  </si>
-  <si>
-    <t>Prudential-Whole Life 20 Anos-Cs &gt; = 420K</t>
-  </si>
-  <si>
-    <t>Prudential-Whole Life 30 Anos-Cs &gt; = 420K</t>
-  </si>
-  <si>
-    <t>Prudential-Temporário E Temporário Decrescente -Cs &lt;= 240K (Pago Conforme Prazo)</t>
-  </si>
-  <si>
     <t>Ourinvest Câmbio Pronto</t>
   </si>
   <si>
@@ -609,70 +573,106 @@
     <t>Rc. Prestação De Serviços (Ate 30%)</t>
   </si>
   <si>
-    <t>Mongeral - Whole Life 10 Anos - Cs &lt; 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral - Whole Life 15 Anos - Cs &lt; 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life 10 Anos - Cs &gt; = 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life 15 Anos - Cs &gt; = 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life 20 Anos - Cs &lt; 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life 25 Anos - Cs &lt; 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life 20 Anos - Cs &gt; = 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life 25 Anos - Cs &gt; = 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life 30 Anos - Cs &lt; 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life Vitalício- Cs &lt; 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Temporário 10 Anos - Cs &lt; 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Temporário 15 Anos - Cs &lt; 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Temporário 10 Anos - Cs &gt; = 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Temporário 15 Anos - Cs &gt; = 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Temporário 20 Anos - Cs &gt; = 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Temporário 25 Anos - Cs &gt; = 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Temporário 30 Anos - Cs &lt; 1Mm</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life Demais Prazos -Cs &lt; 400K Pagto Anual</t>
-  </si>
-  <si>
-    <t>Mongeral-Whole Life Demais Prazos -Cs &lt; 400K Pagto Mensal</t>
-  </si>
-  <si>
     <t>Metlife Vida Total 10 (Whole Life)</t>
   </si>
   <si>
     <t>Metlife Vida Total 20 (Whole Life)</t>
   </si>
   <si>
-    <t>Mongeral-Temporário 10 Anos - Cs &gt; =1Mm</t>
+    <t>Prudential-Temporário E Temporário Decrescente -Cs (Menor igual 240K (Pago Conforme Prazo)</t>
+  </si>
+  <si>
+    <t>Mongeral - Whole Life 10 Anos - Cs (Menor  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral - Whole Life 15 Anos - Cs (Menor  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life 10 Anos - Cs (Maior igual  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life 15 Anos - Cs (Maior igual  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life 20 Anos - Cs (Menor  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life 25 Anos - Cs (Menor  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life 20 Anos - Cs (Maior igual  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life 25 Anos - Cs (Maior igual  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life 30 Anos - Cs (Menor  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life Vitalício- Cs (Menor  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Temporário 10 Anos - Cs (Menor  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Temporário 15 Anos - Cs (Menor  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Temporário 10 Anos - Cs (Maior igual  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Temporário 10 Anos - Cs (Maior igual 1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Temporário 15 Anos - Cs (Maior igual  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Temporário 20 Anos - Cs (Maior igual  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Temporário 25 Anos - Cs (Maior igual  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Temporário 30 Anos - Cs (Menor  1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life 30 Anos - Cs (Maior igual 1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life Vitalício - Cs (Maior igual 1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Temporário 30 Anos - Cs (Maior igual 1MM)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life Vitalício -Cs (Menor  400K Pagto Anual)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life Vitalício -Cs (Menor  400K Pagto Mensal)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life Demais Prazos -Cs (Menor  400K Pagto Anual)</t>
+  </si>
+  <si>
+    <t>Mongeral-Whole Life Demais Prazos -Cs (Menor  400K Pagto Mensal)</t>
+  </si>
+  <si>
+    <t>Prudential-Whole Life 10 Anos-Cs (Maior 420K)</t>
+  </si>
+  <si>
+    <t>Prudential-Whole Life 20 Anos-Cs (Maior 420K)</t>
+  </si>
+  <si>
+    <t>Prudential-Whole Life 30 Anos-Cs (Maior 420K)</t>
+  </si>
+  <si>
+    <t>Prudential-Whole Life 10 Anos-Cs (Maior igual  420K)</t>
+  </si>
+  <si>
+    <t>Prudential-Whole Life 20 Anos-Cs (Maior igual  420K)</t>
+  </si>
+  <si>
+    <t>Prudential-Whole Life 30 Anos-Cs (Maior igual  420K)</t>
   </si>
 </sst>
 </file>
@@ -1072,12 +1072,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA37876-E044-4011-8A06-1264845B7B47}">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D525" workbookViewId="0">
-      <selection activeCell="J541" sqref="D537:J541"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="C456" sqref="C456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="78.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1345,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1362,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
@@ -1379,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1396,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1413,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1430,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1447,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1464,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1651,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1668,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -1685,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1702,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -2739,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -2756,7 +2757,7 @@
         <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -7006,7 +7007,7 @@
         <v>5</v>
       </c>
       <c r="C349" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D349">
         <v>1</v>
@@ -7023,7 +7024,7 @@
         <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D350">
         <v>13</v>
@@ -7040,7 +7041,7 @@
         <v>5</v>
       </c>
       <c r="C351" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D351">
         <v>37</v>
@@ -7057,7 +7058,7 @@
         <v>5</v>
       </c>
       <c r="C352" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D352">
         <v>49</v>
@@ -7074,7 +7075,7 @@
         <v>5</v>
       </c>
       <c r="C353" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D353">
         <v>1</v>
@@ -7091,7 +7092,7 @@
         <v>5</v>
       </c>
       <c r="C354" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D354">
         <v>13</v>
@@ -7108,7 +7109,7 @@
         <v>5</v>
       </c>
       <c r="C355" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D355">
         <v>37</v>
@@ -7125,7 +7126,7 @@
         <v>5</v>
       </c>
       <c r="C356" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D356">
         <v>49</v>
@@ -7142,7 +7143,7 @@
         <v>5</v>
       </c>
       <c r="C357" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -7159,7 +7160,7 @@
         <v>5</v>
       </c>
       <c r="C358" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D358">
         <v>13</v>
@@ -7176,7 +7177,7 @@
         <v>5</v>
       </c>
       <c r="C359" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D359">
         <v>49</v>
@@ -7193,7 +7194,7 @@
         <v>5</v>
       </c>
       <c r="C360" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D360">
         <v>61</v>
@@ -7210,7 +7211,7 @@
         <v>5</v>
       </c>
       <c r="C361" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -7227,7 +7228,7 @@
         <v>5</v>
       </c>
       <c r="C362" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D362">
         <v>13</v>
@@ -7244,7 +7245,7 @@
         <v>5</v>
       </c>
       <c r="C363" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D363">
         <v>49</v>
@@ -7261,7 +7262,7 @@
         <v>5</v>
       </c>
       <c r="C364" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D364">
         <v>61</v>
@@ -7278,7 +7279,7 @@
         <v>5</v>
       </c>
       <c r="C365" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D365">
         <v>1</v>
@@ -7295,7 +7296,7 @@
         <v>5</v>
       </c>
       <c r="C366" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D366">
         <v>13</v>
@@ -7312,7 +7313,7 @@
         <v>5</v>
       </c>
       <c r="C367" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D367">
         <v>49</v>
@@ -7329,7 +7330,7 @@
         <v>5</v>
       </c>
       <c r="C368" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D368">
         <v>61</v>
@@ -7346,7 +7347,7 @@
         <v>5</v>
       </c>
       <c r="C369" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D369">
         <v>1</v>
@@ -7363,7 +7364,7 @@
         <v>5</v>
       </c>
       <c r="C370" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D370">
         <v>13</v>
@@ -7380,7 +7381,7 @@
         <v>5</v>
       </c>
       <c r="C371" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D371">
         <v>49</v>
@@ -7397,7 +7398,7 @@
         <v>5</v>
       </c>
       <c r="C372" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D372">
         <v>61</v>
@@ -7414,7 +7415,7 @@
         <v>5</v>
       </c>
       <c r="C373" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D373">
         <v>1</v>
@@ -7431,7 +7432,7 @@
         <v>5</v>
       </c>
       <c r="C374" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D374">
         <v>13</v>
@@ -7448,7 +7449,7 @@
         <v>5</v>
       </c>
       <c r="C375" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D375">
         <v>49</v>
@@ -7465,7 +7466,7 @@
         <v>5</v>
       </c>
       <c r="C376" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D376">
         <v>61</v>
@@ -7482,7 +7483,7 @@
         <v>5</v>
       </c>
       <c r="C377" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D377">
         <v>1</v>
@@ -7499,7 +7500,7 @@
         <v>5</v>
       </c>
       <c r="C378" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D378">
         <v>13</v>
@@ -7516,7 +7517,7 @@
         <v>5</v>
       </c>
       <c r="C379" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D379">
         <v>49</v>
@@ -7533,7 +7534,7 @@
         <v>5</v>
       </c>
       <c r="C380" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D380">
         <v>61</v>
@@ -7550,7 +7551,7 @@
         <v>5</v>
       </c>
       <c r="C381" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -7567,7 +7568,7 @@
         <v>5</v>
       </c>
       <c r="C382" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D382">
         <v>13</v>
@@ -7584,7 +7585,7 @@
         <v>5</v>
       </c>
       <c r="C383" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D383">
         <v>49</v>
@@ -7601,7 +7602,7 @@
         <v>5</v>
       </c>
       <c r="C384" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D384">
         <v>73</v>
@@ -7618,7 +7619,7 @@
         <v>5</v>
       </c>
       <c r="C385" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D385">
         <v>1</v>
@@ -7635,7 +7636,7 @@
         <v>5</v>
       </c>
       <c r="C386" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D386">
         <v>13</v>
@@ -7652,7 +7653,7 @@
         <v>5</v>
       </c>
       <c r="C387" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D387">
         <v>49</v>
@@ -7669,7 +7670,7 @@
         <v>5</v>
       </c>
       <c r="C388" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D388">
         <v>73</v>
@@ -7686,7 +7687,7 @@
         <v>5</v>
       </c>
       <c r="C389" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -7703,7 +7704,7 @@
         <v>5</v>
       </c>
       <c r="C390" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="D390">
         <v>13</v>
@@ -7720,7 +7721,7 @@
         <v>5</v>
       </c>
       <c r="C391" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="D391">
         <v>49</v>
@@ -7737,7 +7738,7 @@
         <v>5</v>
       </c>
       <c r="C392" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="D392">
         <v>73</v>
@@ -7754,7 +7755,7 @@
         <v>5</v>
       </c>
       <c r="C393" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D393">
         <v>1</v>
@@ -7771,7 +7772,7 @@
         <v>5</v>
       </c>
       <c r="C394" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D394">
         <v>13</v>
@@ -7788,7 +7789,7 @@
         <v>5</v>
       </c>
       <c r="C395" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D395">
         <v>49</v>
@@ -7805,7 +7806,7 @@
         <v>5</v>
       </c>
       <c r="C396" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="D396">
         <v>73</v>
@@ -7822,7 +7823,7 @@
         <v>5</v>
       </c>
       <c r="C397" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D397">
         <v>1</v>
@@ -7839,7 +7840,7 @@
         <v>5</v>
       </c>
       <c r="C398" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D398">
         <v>13</v>
@@ -7856,7 +7857,7 @@
         <v>5</v>
       </c>
       <c r="C399" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D399">
         <v>49</v>
@@ -7873,7 +7874,7 @@
         <v>5</v>
       </c>
       <c r="C400" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D400">
         <v>61</v>
@@ -7890,7 +7891,7 @@
         <v>5</v>
       </c>
       <c r="C401" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D401">
         <v>1</v>
@@ -7907,7 +7908,7 @@
         <v>5</v>
       </c>
       <c r="C402" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D402">
         <v>13</v>
@@ -7924,7 +7925,7 @@
         <v>5</v>
       </c>
       <c r="C403" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D403">
         <v>49</v>
@@ -7941,7 +7942,7 @@
         <v>5</v>
       </c>
       <c r="C404" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D404">
         <v>61</v>
@@ -7958,7 +7959,7 @@
         <v>5</v>
       </c>
       <c r="C405" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D405">
         <v>1</v>
@@ -7975,7 +7976,7 @@
         <v>5</v>
       </c>
       <c r="C406" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D406">
         <v>13</v>
@@ -7992,7 +7993,7 @@
         <v>5</v>
       </c>
       <c r="C407" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D407">
         <v>61</v>
@@ -8009,7 +8010,7 @@
         <v>5</v>
       </c>
       <c r="C408" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -8026,7 +8027,7 @@
         <v>5</v>
       </c>
       <c r="C409" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D409">
         <v>13</v>
@@ -8043,7 +8044,7 @@
         <v>5</v>
       </c>
       <c r="C410" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D410">
         <v>61</v>
@@ -8060,7 +8061,7 @@
         <v>5</v>
       </c>
       <c r="C411" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D411">
         <v>1</v>
@@ -8077,7 +8078,7 @@
         <v>5</v>
       </c>
       <c r="C412" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D412">
         <v>13</v>
@@ -8094,7 +8095,7 @@
         <v>5</v>
       </c>
       <c r="C413" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D413">
         <v>1</v>
@@ -8111,7 +8112,7 @@
         <v>5</v>
       </c>
       <c r="C414" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D414">
         <v>13</v>
@@ -8128,7 +8129,7 @@
         <v>5</v>
       </c>
       <c r="C415" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -8145,7 +8146,7 @@
         <v>5</v>
       </c>
       <c r="C416" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D416">
         <v>13</v>
@@ -8162,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="C417" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D417">
         <v>1</v>
@@ -8179,7 +8180,7 @@
         <v>5</v>
       </c>
       <c r="C418" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D418">
         <v>13</v>
@@ -8196,7 +8197,7 @@
         <v>5</v>
       </c>
       <c r="C419" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D419">
         <v>1</v>
@@ -8213,7 +8214,7 @@
         <v>5</v>
       </c>
       <c r="C420" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D420">
         <v>13</v>
@@ -8230,7 +8231,7 @@
         <v>5</v>
       </c>
       <c r="C421" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="D421">
         <v>1</v>
@@ -8247,7 +8248,7 @@
         <v>5</v>
       </c>
       <c r="C422" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="D422">
         <v>13</v>
@@ -8264,7 +8265,7 @@
         <v>5</v>
       </c>
       <c r="C423" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -8281,7 +8282,7 @@
         <v>5</v>
       </c>
       <c r="C424" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="D424">
         <v>13</v>
@@ -8298,7 +8299,7 @@
         <v>5</v>
       </c>
       <c r="C425" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="D425">
         <v>73</v>
@@ -8315,7 +8316,7 @@
         <v>5</v>
       </c>
       <c r="C426" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -8332,7 +8333,7 @@
         <v>5</v>
       </c>
       <c r="C427" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="D427">
         <v>2</v>
@@ -8349,7 +8350,7 @@
         <v>5</v>
       </c>
       <c r="C428" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D428">
         <v>1</v>
@@ -8366,7 +8367,7 @@
         <v>5</v>
       </c>
       <c r="C429" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D429">
         <v>13</v>
@@ -8383,7 +8384,7 @@
         <v>5</v>
       </c>
       <c r="C430" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D430">
         <v>1</v>
@@ -8400,7 +8401,7 @@
         <v>5</v>
       </c>
       <c r="C431" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D431">
         <v>2</v>
@@ -8417,7 +8418,7 @@
         <v>5</v>
       </c>
       <c r="C432" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D432">
         <v>1</v>
@@ -8434,7 +8435,7 @@
         <v>5</v>
       </c>
       <c r="C433" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D433">
         <v>13</v>
@@ -8451,7 +8452,7 @@
         <v>5</v>
       </c>
       <c r="C434" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D434">
         <v>1</v>
@@ -8468,7 +8469,7 @@
         <v>5</v>
       </c>
       <c r="C435" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D435">
         <v>13</v>
@@ -8485,7 +8486,7 @@
         <v>5</v>
       </c>
       <c r="C436" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D436">
         <v>1</v>
@@ -8502,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="C437" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D437">
         <v>13</v>
@@ -8519,7 +8520,7 @@
         <v>5</v>
       </c>
       <c r="C438" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D438">
         <v>1</v>
@@ -8536,7 +8537,7 @@
         <v>5</v>
       </c>
       <c r="C439" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D439">
         <v>13</v>
@@ -8553,7 +8554,7 @@
         <v>5</v>
       </c>
       <c r="C440" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D440">
         <v>1</v>
@@ -8570,7 +8571,7 @@
         <v>5</v>
       </c>
       <c r="C441" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D441">
         <v>13</v>
@@ -8587,7 +8588,7 @@
         <v>5</v>
       </c>
       <c r="C442" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -8604,7 +8605,7 @@
         <v>5</v>
       </c>
       <c r="C443" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D443">
         <v>13</v>
@@ -8621,7 +8622,7 @@
         <v>5</v>
       </c>
       <c r="C444" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D444">
         <v>1</v>
@@ -8638,7 +8639,7 @@
         <v>5</v>
       </c>
       <c r="C445" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D445">
         <v>13</v>
@@ -8655,7 +8656,7 @@
         <v>5</v>
       </c>
       <c r="C446" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D446">
         <v>1</v>
@@ -8672,7 +8673,7 @@
         <v>5</v>
       </c>
       <c r="C447" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D447">
         <v>2</v>
@@ -8689,7 +8690,7 @@
         <v>5</v>
       </c>
       <c r="C448" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D448">
         <v>1</v>
@@ -8706,7 +8707,7 @@
         <v>5</v>
       </c>
       <c r="C449" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D449">
         <v>2</v>
@@ -8723,7 +8724,7 @@
         <v>5</v>
       </c>
       <c r="C450" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D450">
         <v>1</v>
@@ -8740,7 +8741,7 @@
         <v>5</v>
       </c>
       <c r="C451" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D451">
         <v>2</v>
@@ -8757,7 +8758,7 @@
         <v>5</v>
       </c>
       <c r="C452" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D452">
         <v>1</v>
@@ -8774,7 +8775,7 @@
         <v>5</v>
       </c>
       <c r="C453" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D453">
         <v>2</v>
@@ -8791,7 +8792,7 @@
         <v>5</v>
       </c>
       <c r="C454" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D454">
         <v>1</v>
@@ -8808,7 +8809,7 @@
         <v>5</v>
       </c>
       <c r="C455" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D455">
         <v>2</v>
@@ -8825,7 +8826,7 @@
         <v>5</v>
       </c>
       <c r="C456" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D456">
         <v>1</v>
@@ -8842,7 +8843,7 @@
         <v>5</v>
       </c>
       <c r="C457" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D457">
         <v>2</v>
@@ -8859,7 +8860,7 @@
         <v>5</v>
       </c>
       <c r="C458" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D458">
         <v>1</v>
@@ -8876,7 +8877,7 @@
         <v>5</v>
       </c>
       <c r="C459" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D459">
         <v>2</v>
@@ -8893,7 +8894,7 @@
         <v>5</v>
       </c>
       <c r="C460" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D460">
         <v>1</v>
@@ -8910,7 +8911,7 @@
         <v>5</v>
       </c>
       <c r="C461" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D461">
         <v>13</v>
@@ -8927,7 +8928,7 @@
         <v>5</v>
       </c>
       <c r="C462" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D462">
         <v>37</v>
@@ -8944,7 +8945,7 @@
         <v>5</v>
       </c>
       <c r="C463" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D463">
         <v>49</v>
@@ -8961,7 +8962,7 @@
         <v>5</v>
       </c>
       <c r="C464" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D464">
         <v>1</v>
@@ -8978,7 +8979,7 @@
         <v>5</v>
       </c>
       <c r="C465" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D465">
         <v>13</v>
@@ -8995,7 +8996,7 @@
         <v>5</v>
       </c>
       <c r="C466" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D466">
         <v>49</v>
@@ -9012,7 +9013,7 @@
         <v>5</v>
       </c>
       <c r="C467" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D467">
         <v>61</v>
@@ -9029,7 +9030,7 @@
         <v>5</v>
       </c>
       <c r="C468" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D468">
         <v>1</v>
@@ -9046,7 +9047,7 @@
         <v>5</v>
       </c>
       <c r="C469" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D469">
         <v>13</v>
@@ -9063,7 +9064,7 @@
         <v>5</v>
       </c>
       <c r="C470" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D470">
         <v>49</v>
@@ -9080,7 +9081,7 @@
         <v>5</v>
       </c>
       <c r="C471" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="D471">
         <v>61</v>
@@ -9981,7 +9982,7 @@
         <v>5</v>
       </c>
       <c r="C524" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D524">
         <v>1</v>
@@ -9998,7 +9999,7 @@
         <v>5</v>
       </c>
       <c r="C525" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D525">
         <v>13</v>
@@ -10015,7 +10016,7 @@
         <v>5</v>
       </c>
       <c r="C526" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D526">
         <v>61</v>
@@ -10032,7 +10033,7 @@
         <v>5</v>
       </c>
       <c r="C527" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D527">
         <v>1</v>
@@ -10049,7 +10050,7 @@
         <v>5</v>
       </c>
       <c r="C528" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D528">
         <v>13</v>
@@ -10066,7 +10067,7 @@
         <v>5</v>
       </c>
       <c r="C529" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D529">
         <v>61</v>
@@ -10083,7 +10084,7 @@
         <v>5</v>
       </c>
       <c r="C530" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="D530">
         <v>1</v>
@@ -10100,7 +10101,7 @@
         <v>5</v>
       </c>
       <c r="C531" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="D531">
         <v>13</v>
@@ -10117,7 +10118,7 @@
         <v>5</v>
       </c>
       <c r="C532" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="D532">
         <v>61</v>
@@ -10134,7 +10135,7 @@
         <v>5</v>
       </c>
       <c r="C533" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D533">
         <v>1</v>
@@ -10151,7 +10152,7 @@
         <v>5</v>
       </c>
       <c r="C534" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D534">
         <v>13</v>
@@ -10168,7 +10169,7 @@
         <v>5</v>
       </c>
       <c r="C535" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="D535">
         <v>61</v>
@@ -10185,7 +10186,7 @@
         <v>5</v>
       </c>
       <c r="C536" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D536">
         <v>1</v>
@@ -10202,7 +10203,7 @@
         <v>5</v>
       </c>
       <c r="C537" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D537">
         <v>13</v>
@@ -10219,7 +10220,7 @@
         <v>5</v>
       </c>
       <c r="C538" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="D538">
         <v>61</v>
@@ -10236,7 +10237,7 @@
         <v>5</v>
       </c>
       <c r="C539" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="D539">
         <v>1</v>
@@ -10253,7 +10254,7 @@
         <v>5</v>
       </c>
       <c r="C540" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="D540">
         <v>13</v>
@@ -10270,7 +10271,7 @@
         <v>5</v>
       </c>
       <c r="C541" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="D541">
         <v>61</v>
@@ -10287,7 +10288,7 @@
         <v>5</v>
       </c>
       <c r="C542" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D542">
         <v>1</v>
@@ -10304,7 +10305,7 @@
         <v>5</v>
       </c>
       <c r="C543" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D543">
         <v>13</v>
@@ -10321,7 +10322,7 @@
         <v>5</v>
       </c>
       <c r="C544" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D544">
         <v>61</v>
